--- a/buglists/buglist Robin.xlsx
+++ b/buglists/buglist Robin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>naam reviewer</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>5..</t>
+  </si>
+  <si>
+    <t>Databases terwijl de rest is afgekort.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,79 +463,96 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:D9">
+    <sortCondition ref="D9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
